--- a/Practicas/Ejemplo VAN y TIR.xlsx
+++ b/Practicas/Ejemplo VAN y TIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8132E3E0-BDCE-4E28-98EF-E05D4A3730DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F7B82-58B1-46E9-A030-2B83CE5F118A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{613C8110-6AEB-47A0-944E-2D6503010F17}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>-71988</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -852,53 +852,41 @@
         <f>B5</f>
         <v>40000</v>
       </c>
-      <c r="C7" s="12">
-        <f>B7+C6</f>
-        <v>34001</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" ref="D7:N7" si="2">C7+D6</f>
-        <v>28002</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="2"/>
-        <v>22003</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="2"/>
-        <v>16004</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="2"/>
-        <v>10005</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="2"/>
-        <v>4006</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>-1993</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="2"/>
-        <v>-7992</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="2"/>
-        <v>-13991</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" si="2"/>
-        <v>-19990</v>
-      </c>
-      <c r="M7" s="12">
-        <f t="shared" si="2"/>
-        <v>-25989</v>
-      </c>
-      <c r="N7" s="12">
-        <f t="shared" si="2"/>
-        <v>-31988</v>
+      <c r="C7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="H7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="K7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="L7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-5999</v>
+      </c>
+      <c r="N7" s="9">
+        <v>-5999</v>
       </c>
       <c r="P7" s="13">
         <f>SUM(P5:P6)</f>
@@ -964,39 +952,39 @@
         <v>-5570.667866107573</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F10:N10" si="3">F6/(1+$B$15)^F4</f>
+        <f t="shared" ref="F10:N10" si="2">F6/(1+$B$15)^F4</f>
         <v>-5434.7979181537303</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5302.2418713694933</v>
       </c>
       <c r="H10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5172.9188988970673</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-5046.7501452654315</v>
       </c>
       <c r="J10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4923.6586783077382</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4803.5694422514525</v>
       </c>
       <c r="L10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4686.4092119526367</v>
       </c>
       <c r="M10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4572.1065482464746</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-4460.5917543868054</v>
       </c>
       <c r="P10" s="18">
@@ -1019,7 +1007,7 @@
       </c>
       <c r="B12" s="22">
         <f>IRR(B7:N7)</f>
-        <v>-4.6874855683218253E-2</v>
+        <v>0.10444663910322638</v>
       </c>
       <c r="N12" s="23"/>
       <c r="P12" s="24"/>
@@ -1045,7 +1033,7 @@
       </c>
       <c r="B16" s="28">
         <f>NPV(B14,C7:N7)+B7</f>
-        <v>68405.103227527914</v>
+        <v>-21536.329824527944</v>
       </c>
       <c r="C16" s="29"/>
     </row>
